--- a/biology/Histoire de la zoologie et de la botanique/Piotr_Fokich_Borovsky/Piotr_Fokich_Borovsky.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Piotr_Fokich_Borovsky/Piotr_Fokich_Borovsky.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Piotr Fokich Borovsky (russe : Пётр Фоки́ч Боро́вский, 27 mai 1863 - 15 décembre 1932) était un chirurgien russe et soviétique et administrateur de la santé publique qui travaillait à Tachkent, professeur de chirurgie à l'Institut médical de Tachkent.
 Borovsky est crédité de la première description correcte de l'agent causal de la leishmaniose cutanée ou  « plaie orientale ».
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Piotr Borovsky naît le 27 mai 1863 à Pogar, situé dans l'Uyezd de Starodub, gouvernorat de Tchernigov, dans l'Empire russe.
 Après avoir étudié la médecine et s'être spécialisé en chirurgie à l'Université de Kiev et à l'Académie de médecine militaire de Saint-Pétersbourg, il est envoyé en 1892 à l'hôpital militaire de Tachkent en tant que chef du service de chirurgie et du laboratoire de bactériologie.
@@ -545,10 +559,12 @@
           <t>Description de la plaie orientale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Borovsky s'intéresse à l'étiologie de la « plaie de Sart », l'un des noms locaux de la « plaie orientale ». Il examine au microscope des sections de plaies excisées à un stade précoce, avant qu'elles ne s'ulcèrent, et parvient à détecter des corps ovales avec un noyau et un petit processus, généralement situés à l'intérieur des cellules hôtes. Il en tire la conclusion exacte que les organismes observés sont les agents responsables de cette maladie, et les classe à juste titre parmi protozoaires.
-Borovsky publie ses observations dans le journal russe Voenno-meditsinsky zhurnal ( Journal médico-militaire ) en 1898.  En raison du faible tirage de cette publication, la paternité de cette découverte ne lui est internationalement reconnue que bien plus tard[1].
+Borovsky publie ses observations dans le journal russe Voenno-meditsinsky zhurnal ( Journal médico-militaire ) en 1898.  En raison du faible tirage de cette publication, la paternité de cette découverte ne lui est internationalement reconnue que bien plus tard.
 </t>
         </is>
       </c>
